--- a/data/158/SBJ/EMPL/old/lt01-c30.xlsx
+++ b/data/158/SBJ/EMPL/old/lt01-c30.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\ROUCHO\16インターネット\19 提出用\2021年\1001 労働力調査（基本集計）8月分\data\roudou\longtime\zuhyou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\ROUCHO\16インターネット\19 提出用\2021年\1130 労働力調査（基本集計）10月分\data\roudou\longtime\zuhyou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADF35C2-430B-432E-8489-610B4B85FE83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA48D5-C8A2-4CE6-8E15-C59711491019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17395,24 +17395,60 @@
         <v>20</v>
       </c>
       <c r="D246" s="30"/>
-      <c r="E246" s="85"/>
-      <c r="F246" s="85"/>
-      <c r="G246" s="85"/>
-      <c r="H246" s="86"/>
-      <c r="I246" s="86"/>
-      <c r="J246" s="86"/>
-      <c r="K246" s="86"/>
-      <c r="L246" s="86"/>
-      <c r="M246" s="86"/>
-      <c r="N246" s="86"/>
-      <c r="O246" s="86"/>
-      <c r="P246" s="86"/>
-      <c r="Q246" s="86"/>
-      <c r="R246" s="86"/>
-      <c r="S246" s="86"/>
-      <c r="T246" s="86"/>
-      <c r="U246" s="86"/>
-      <c r="V246" s="86"/>
+      <c r="E246" s="85">
+        <v>6679</v>
+      </c>
+      <c r="F246" s="85">
+        <v>202</v>
+      </c>
+      <c r="G246" s="85">
+        <v>6477</v>
+      </c>
+      <c r="H246" s="86">
+        <v>495</v>
+      </c>
+      <c r="I246" s="86">
+        <v>1021</v>
+      </c>
+      <c r="J246" s="86">
+        <v>259</v>
+      </c>
+      <c r="K246" s="86">
+        <v>340</v>
+      </c>
+      <c r="L246" s="86">
+        <v>1059</v>
+      </c>
+      <c r="M246" s="86">
+        <v>181</v>
+      </c>
+      <c r="N246" s="86">
+        <v>143</v>
+      </c>
+      <c r="O246" s="86">
+        <v>257</v>
+      </c>
+      <c r="P246" s="86">
+        <v>369</v>
+      </c>
+      <c r="Q246" s="86">
+        <v>218</v>
+      </c>
+      <c r="R246" s="86">
+        <v>352</v>
+      </c>
+      <c r="S246" s="86">
+        <v>887</v>
+      </c>
+      <c r="T246" s="86">
+        <v>55</v>
+      </c>
+      <c r="U246" s="86">
+        <v>455</v>
+      </c>
+      <c r="V246" s="86">
+        <v>236</v>
+      </c>
     </row>
     <row r="247" spans="1:22" ht="14.25" customHeight="1">
       <c r="A247" s="13"/>
@@ -17423,24 +17459,60 @@
         <v>21</v>
       </c>
       <c r="D247" s="30"/>
-      <c r="E247" s="85"/>
-      <c r="F247" s="85"/>
-      <c r="G247" s="85"/>
-      <c r="H247" s="86"/>
-      <c r="I247" s="86"/>
-      <c r="J247" s="86"/>
-      <c r="K247" s="86"/>
-      <c r="L247" s="86"/>
-      <c r="M247" s="86"/>
-      <c r="N247" s="86"/>
-      <c r="O247" s="86"/>
-      <c r="P247" s="86"/>
-      <c r="Q247" s="86"/>
-      <c r="R247" s="86"/>
-      <c r="S247" s="86"/>
-      <c r="T247" s="86"/>
-      <c r="U247" s="86"/>
-      <c r="V247" s="86"/>
+      <c r="E247" s="85">
+        <v>6659</v>
+      </c>
+      <c r="F247" s="85">
+        <v>187</v>
+      </c>
+      <c r="G247" s="85">
+        <v>6472</v>
+      </c>
+      <c r="H247" s="86">
+        <v>487</v>
+      </c>
+      <c r="I247" s="86">
+        <v>1036</v>
+      </c>
+      <c r="J247" s="86">
+        <v>255</v>
+      </c>
+      <c r="K247" s="86">
+        <v>363</v>
+      </c>
+      <c r="L247" s="86">
+        <v>1048</v>
+      </c>
+      <c r="M247" s="86">
+        <v>175</v>
+      </c>
+      <c r="N247" s="86">
+        <v>147</v>
+      </c>
+      <c r="O247" s="86">
+        <v>266</v>
+      </c>
+      <c r="P247" s="86">
+        <v>366</v>
+      </c>
+      <c r="Q247" s="86">
+        <v>220</v>
+      </c>
+      <c r="R247" s="86">
+        <v>342</v>
+      </c>
+      <c r="S247" s="86">
+        <v>882</v>
+      </c>
+      <c r="T247" s="86">
+        <v>48</v>
+      </c>
+      <c r="U247" s="86">
+        <v>451</v>
+      </c>
+      <c r="V247" s="86">
+        <v>236</v>
+      </c>
     </row>
     <row r="248" spans="1:22" ht="14.25" customHeight="1">
       <c r="A248" s="13"/>

--- a/data/158/SBJ/EMPL/old/lt01-c30.xlsx
+++ b/data/158/SBJ/EMPL/old/lt01-c30.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\ROUCHO\16インターネット\19 提出用\2021年\1130 労働力調査（基本集計）10月分\data\roudou\longtime\zuhyou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\ROUCHO\16インターネット\19 提出用\2022年\0329 労働力調査（基本集計）2月分\data\roudou\longtime\zuhyou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA48D5-C8A2-4CE6-8E15-C59711491019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8905CDDE-9DD9-4B72-BDBD-F0E7AD5AE37B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原数値" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">※注_Notes!$A$1:$D$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">原数値!$A$1:$V$254</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">原数値!$A$1:$V$266</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">※注_Notes!$A:$A,※注_Notes!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">原数値!$A:$D,原数値!$1:$8</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="113">
   <si>
     <t>2月</t>
   </si>
@@ -714,23 +714,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1982年から5年ごとに算出の基礎となるベンチマーク人口の基準を切り替えており，それぞれ切替えに伴う変動がある。
-【参考】https://www.stat.go.jp/data/roudou/pdf/10.pdf　
-このうち，2017年1月結果からは，算出の基礎となるベンチマーク人口を，2010年国勢調査結果を基準とする推計人口（旧基準）から2015年国勢調査結果を基準とする推計人口（新基準）に切り替えた※。これに伴い2010年10月から2016年12月までの数値については，比率を除き，新基準のベンチマーク人口に基づいて遡及又は補正した時系列接続用数値に置き換えて掲載した。また，2005年10月から2010年9月までの数値については，2010年国勢調査基準のベンチマーク人口に基づく時系列接続用数値を掲載している。このため，当該期間の数値は，各年の報告書の数値及び統計表やe-Stat上のデータベースの数値とは異なる。
-※この切替えによる変動（ギャップ）は，全国の15歳以上人口（2015年９月結果）で＋35万人（新基準－旧基準）となっている。
-【参考】https://www.stat.go.jp/data/roudou/170131/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since 1982, the benchmark population for calculating the results of the Labour Force Survey is revised every five years because the Population Estimates are revised every five years according to the release of the latest results of the Population Census conducted every five years. 
-  cf. https://www.stat.go.jp/english/data/roudou/pdf/samplerr.pdf
-The benchmark population was revised to the 2015 Census-based population estimates in January 2017. Responding to the revision, in order to remove the gaps, data from October 2010 through December 2016 have been adjusted to comparable time-series data (the intercensal-level adjustment data or the retroactive adjustment data).
-From October 2005 to September 2010, the figures are comparable time-series data based on the 2010 Census-based benchmark population.
-Therefore, the figures for those periods are different from the ones in the annual report published in each year or on tables and databases provided on e-Stat.
-* The gap of benchmark population is approximately +350,000, the 2015 Census-based population of 15 years old and over for September 2015 minus that of the 2010 Census-based population.
-cf. https://www.stat.go.jp/english/data/roudou/170131/index.html
-</t>
-  </si>
-  <si>
     <t>平成31年</t>
     <rPh sb="0" eb="2">
       <t>ヘイセイ</t>
@@ -765,6 +748,35 @@
     <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>令和 4年</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1982年から5年ごとに算出の基礎となるベンチマーク人口の基準を切り替えており，それぞれ切替えに伴う変動がある。
+【参考】https://www.stat.go.jp/data/roudou/pdf/10.pdf　
+このうち，2022年1月分結果からは，算出の基礎となるベンチマーク人口を，2015年国勢調査結果を基準とする推計人口（旧基準）から2020年国勢調査結果を基準とする推計人口（新基準）に切り替えた※。これに伴い2015年10月から2021年12月までの数値については，比率を除き，新基準のベンチマーク人口に基づいて遡及又は補正した時系列接続用数値に置き換えて掲載した。また，2005年10月から2010年9月までの数値については2010年国勢調査基準のベンチマーク人口に基づく時系列接続用数値，2010年10月から2015年9月までの数値については2015年国勢調査基準のベンチマーク人口に基づく時系列接続用数値を掲載している。このため，当該期間の数値は，各年の報告書の数値及び統計表やe-Stat上のデータベースの数値とは異なる。
+※この切替えによる変動（ギャップ）は，全国の15歳以上人口（2020年９月結果）で＋26万人（新基準－旧基準）となっている。
+【参考】https://www.stat.go.jp/data/roudou/220201/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Since 1982, the benchmark population for calculating the results of the Labour Force Survey is revised every five years because the Population Estimates are revised every five years according to the release of the latest results of the Population Census which is conducted every five years. 
+  cf. https://www.stat.go.jp/english/data/roudou/pdf/samplerr.pdf
+The benchmark population was revised to the 2020 Census-based population estimates in January 2022. Responding to the revision, in order to remove the gaps, data from October 2015 through December 2021 have been adjusted to comparable time-series data (the intercensal-level adjustment data or the retroactive adjustment data).
+From October 2005 to September 2010, the figures are comparable time-series data based on the 2010 Census-based benchmark population.
+From October 2010 to September 2015, the figures are comparable time-series data based on the 2015 Census-based benchmark population.
+Therefore, the figures for those periods are different from the ones in the annual report published in each year or on tables and databases provided on e-Stat.
+* The gap of benchmark population is approximately +260,000, the 2020 Census-based population of 15 years old and over for September 2020 minus that of the 2015 Census-based population.
+cf. https://www.stat.go.jp/english/data/roudou/220201/index.html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1881,10 +1893,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:W253"/>
+  <dimension ref="A1:W265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="E238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="E250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
@@ -12826,13 +12838,13 @@
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="85">
-        <v>6459</v>
+        <v>6460</v>
       </c>
       <c r="F175" s="85">
         <v>215</v>
       </c>
       <c r="G175" s="85">
-        <v>6245</v>
+        <v>6246</v>
       </c>
       <c r="H175" s="85">
         <v>519</v>
@@ -12890,13 +12902,13 @@
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="85">
-        <v>6406</v>
+        <v>6407</v>
       </c>
       <c r="F176" s="85">
         <v>190</v>
       </c>
       <c r="G176" s="85">
-        <v>6216</v>
+        <v>6217</v>
       </c>
       <c r="H176" s="85">
         <v>511</v>
@@ -12954,13 +12966,13 @@
       </c>
       <c r="D177" s="31"/>
       <c r="E177" s="87">
-        <v>6410</v>
+        <v>6412</v>
       </c>
       <c r="F177" s="87">
         <v>172</v>
       </c>
       <c r="G177" s="87">
-        <v>6238</v>
+        <v>6240</v>
       </c>
       <c r="H177" s="87">
         <v>497</v>
@@ -13020,13 +13032,13 @@
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="90">
-        <v>6424</v>
+        <v>6426</v>
       </c>
       <c r="F178" s="90">
         <v>169</v>
       </c>
       <c r="G178" s="90">
-        <v>6255</v>
+        <v>6257</v>
       </c>
       <c r="H178" s="90">
         <v>474</v>
@@ -13086,19 +13098,19 @@
       </c>
       <c r="D179" s="30"/>
       <c r="E179" s="85">
-        <v>6376</v>
+        <v>6379</v>
       </c>
       <c r="F179" s="85">
         <v>161</v>
       </c>
       <c r="G179" s="85">
-        <v>6215</v>
+        <v>6218</v>
       </c>
       <c r="H179" s="85">
         <v>481</v>
       </c>
       <c r="I179" s="85">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J179" s="85">
         <v>194</v>
@@ -13107,7 +13119,7 @@
         <v>344</v>
       </c>
       <c r="L179" s="85">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="M179" s="85">
         <v>162</v>
@@ -13150,19 +13162,19 @@
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="85">
-        <v>6364</v>
+        <v>6367</v>
       </c>
       <c r="F180" s="85">
         <v>174</v>
       </c>
       <c r="G180" s="85">
-        <v>6190</v>
+        <v>6193</v>
       </c>
       <c r="H180" s="85">
         <v>493</v>
       </c>
       <c r="I180" s="85">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="J180" s="85">
         <v>205</v>
@@ -13171,7 +13183,7 @@
         <v>335</v>
       </c>
       <c r="L180" s="85">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M180" s="85">
         <v>160</v>
@@ -13192,7 +13204,7 @@
         <v>299</v>
       </c>
       <c r="S180" s="85">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="T180" s="85">
         <v>61</v>
@@ -13214,19 +13226,19 @@
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="85">
-        <v>6420</v>
+        <v>6424</v>
       </c>
       <c r="F181" s="85">
         <v>204</v>
       </c>
       <c r="G181" s="85">
-        <v>6217</v>
+        <v>6221</v>
       </c>
       <c r="H181" s="85">
         <v>501</v>
       </c>
       <c r="I181" s="85">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="J181" s="85">
         <v>212</v>
@@ -13235,7 +13247,7 @@
         <v>327</v>
       </c>
       <c r="L181" s="85">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="M181" s="85">
         <v>159</v>
@@ -13256,7 +13268,7 @@
         <v>301</v>
       </c>
       <c r="S181" s="85">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="T181" s="85">
         <v>57</v>
@@ -13278,19 +13290,19 @@
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="85">
-        <v>6471</v>
+        <v>6475</v>
       </c>
       <c r="F182" s="85">
         <v>228</v>
       </c>
       <c r="G182" s="85">
-        <v>6243</v>
+        <v>6247</v>
       </c>
       <c r="H182" s="85">
         <v>500</v>
       </c>
       <c r="I182" s="85">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="J182" s="85">
         <v>212</v>
@@ -13299,7 +13311,7 @@
         <v>325</v>
       </c>
       <c r="L182" s="85">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="M182" s="85">
         <v>165</v>
@@ -13320,7 +13332,7 @@
         <v>296</v>
       </c>
       <c r="S182" s="85">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="T182" s="85">
         <v>58</v>
@@ -13342,19 +13354,19 @@
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="85">
-        <v>6522</v>
+        <v>6527</v>
       </c>
       <c r="F183" s="85">
         <v>237</v>
       </c>
       <c r="G183" s="85">
-        <v>6286</v>
+        <v>6291</v>
       </c>
       <c r="H183" s="85">
         <v>498</v>
       </c>
       <c r="I183" s="85">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="J183" s="85">
         <v>210</v>
@@ -13363,7 +13375,7 @@
         <v>335</v>
       </c>
       <c r="L183" s="85">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="M183" s="85">
         <v>166</v>
@@ -13384,7 +13396,7 @@
         <v>308</v>
       </c>
       <c r="S183" s="85">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="T183" s="85">
         <v>64</v>
@@ -13406,19 +13418,19 @@
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="85">
-        <v>6504</v>
+        <v>6510</v>
       </c>
       <c r="F184" s="85">
         <v>224</v>
       </c>
       <c r="G184" s="85">
-        <v>6280</v>
+        <v>6286</v>
       </c>
       <c r="H184" s="85">
         <v>496</v>
       </c>
       <c r="I184" s="85">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="J184" s="85">
         <v>206</v>
@@ -13427,7 +13439,7 @@
         <v>339</v>
       </c>
       <c r="L184" s="85">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M184" s="85">
         <v>164</v>
@@ -13448,7 +13460,7 @@
         <v>316</v>
       </c>
       <c r="S184" s="85">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="T184" s="85">
         <v>61</v>
@@ -13470,19 +13482,19 @@
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="85">
-        <v>6489</v>
+        <v>6495</v>
       </c>
       <c r="F185" s="85">
         <v>221</v>
       </c>
       <c r="G185" s="85">
-        <v>6268</v>
+        <v>6274</v>
       </c>
       <c r="H185" s="85">
         <v>497</v>
       </c>
       <c r="I185" s="85">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="J185" s="85">
         <v>204</v>
@@ -13491,7 +13503,7 @@
         <v>348</v>
       </c>
       <c r="L185" s="85">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="M185" s="85">
         <v>169</v>
@@ -13512,7 +13524,7 @@
         <v>304</v>
       </c>
       <c r="S185" s="85">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="T185" s="85">
         <v>61</v>
@@ -13534,19 +13546,19 @@
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="85">
-        <v>6522</v>
+        <v>6529</v>
       </c>
       <c r="F186" s="85">
         <v>225</v>
       </c>
       <c r="G186" s="85">
-        <v>6297</v>
+        <v>6304</v>
       </c>
       <c r="H186" s="85">
         <v>494</v>
       </c>
       <c r="I186" s="85">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="J186" s="85">
         <v>219</v>
@@ -13555,7 +13567,7 @@
         <v>328</v>
       </c>
       <c r="L186" s="85">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="M186" s="85">
         <v>170</v>
@@ -13576,7 +13588,7 @@
         <v>309</v>
       </c>
       <c r="S186" s="85">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="T186" s="85">
         <v>65</v>
@@ -13598,19 +13610,19 @@
       </c>
       <c r="D187" s="30"/>
       <c r="E187" s="85">
-        <v>6520</v>
+        <v>6527</v>
       </c>
       <c r="F187" s="85">
         <v>221</v>
       </c>
       <c r="G187" s="85">
-        <v>6299</v>
+        <v>6306</v>
       </c>
       <c r="H187" s="85">
         <v>496</v>
       </c>
       <c r="I187" s="85">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="J187" s="85">
         <v>214</v>
@@ -13619,7 +13631,7 @@
         <v>331</v>
       </c>
       <c r="L187" s="85">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="M187" s="85">
         <v>167</v>
@@ -13640,7 +13652,7 @@
         <v>317</v>
       </c>
       <c r="S187" s="85">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="T187" s="85">
         <v>63</v>
@@ -13662,19 +13674,19 @@
       </c>
       <c r="D188" s="30"/>
       <c r="E188" s="85">
-        <v>6477</v>
+        <v>6485</v>
       </c>
       <c r="F188" s="85">
         <v>201</v>
       </c>
       <c r="G188" s="85">
-        <v>6276</v>
+        <v>6284</v>
       </c>
       <c r="H188" s="85">
         <v>504</v>
       </c>
       <c r="I188" s="85">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="J188" s="85">
         <v>213</v>
@@ -13683,7 +13695,7 @@
         <v>350</v>
       </c>
       <c r="L188" s="85">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="M188" s="85">
         <v>157</v>
@@ -13704,7 +13716,7 @@
         <v>315</v>
       </c>
       <c r="S188" s="85">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="T188" s="85">
         <v>62</v>
@@ -13726,28 +13738,28 @@
       </c>
       <c r="D189" s="31"/>
       <c r="E189" s="87">
-        <v>6490</v>
+        <v>6498</v>
       </c>
       <c r="F189" s="87">
         <v>171</v>
       </c>
       <c r="G189" s="87">
-        <v>6319</v>
+        <v>6327</v>
       </c>
       <c r="H189" s="87">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I189" s="87">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="J189" s="87">
         <v>205</v>
       </c>
       <c r="K189" s="87">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L189" s="87">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="M189" s="87">
         <v>156</v>
@@ -13765,19 +13777,19 @@
         <v>232</v>
       </c>
       <c r="R189" s="87">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="S189" s="87">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="T189" s="87">
         <v>65</v>
       </c>
       <c r="U189" s="87">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V189" s="87">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="190" spans="1:22" ht="14.25" customHeight="1">
@@ -13792,28 +13804,28 @@
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="90">
-        <v>6470</v>
+        <v>6479</v>
       </c>
       <c r="F190" s="90">
         <v>160</v>
       </c>
       <c r="G190" s="90">
-        <v>6309</v>
+        <v>6318</v>
       </c>
       <c r="H190" s="90">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I190" s="90">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="J190" s="90">
         <v>199</v>
       </c>
       <c r="K190" s="90">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L190" s="90">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="M190" s="90">
         <v>155</v>
@@ -13831,19 +13843,19 @@
         <v>231</v>
       </c>
       <c r="R190" s="90">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S190" s="90">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="T190" s="90">
         <v>63</v>
       </c>
       <c r="U190" s="90">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="V190" s="90">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="191" spans="1:22" ht="14.25" customHeight="1">
@@ -13858,28 +13870,28 @@
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="85">
-        <v>6427</v>
+        <v>6436</v>
       </c>
       <c r="F191" s="85">
         <v>166</v>
       </c>
       <c r="G191" s="85">
-        <v>6260</v>
+        <v>6269</v>
       </c>
       <c r="H191" s="86">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I191" s="86">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="J191" s="86">
         <v>208</v>
       </c>
       <c r="K191" s="86">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L191" s="86">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="M191" s="86">
         <v>157</v>
@@ -13897,19 +13909,19 @@
         <v>222</v>
       </c>
       <c r="R191" s="86">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S191" s="86">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="T191" s="86">
         <v>60</v>
       </c>
       <c r="U191" s="86">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="V191" s="86">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" spans="1:22" ht="14.25" customHeight="1">
@@ -13922,28 +13934,28 @@
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="85">
-        <v>6433</v>
+        <v>6443</v>
       </c>
       <c r="F192" s="85">
         <v>178</v>
       </c>
       <c r="G192" s="85">
-        <v>6255</v>
+        <v>6265</v>
       </c>
       <c r="H192" s="86">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I192" s="86">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="J192" s="86">
         <v>212</v>
       </c>
       <c r="K192" s="86">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L192" s="86">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="M192" s="86">
         <v>166</v>
@@ -13961,19 +13973,19 @@
         <v>227</v>
       </c>
       <c r="R192" s="86">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S192" s="86">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="T192" s="86">
         <v>56</v>
       </c>
       <c r="U192" s="86">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V192" s="86">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="193" spans="1:22" ht="14.25" customHeight="1">
@@ -13986,28 +13998,28 @@
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="85">
-        <v>6500</v>
+        <v>6510</v>
       </c>
       <c r="F193" s="85">
         <v>202</v>
       </c>
       <c r="G193" s="85">
-        <v>6298</v>
+        <v>6308</v>
       </c>
       <c r="H193" s="86">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I193" s="86">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="J193" s="86">
         <v>218</v>
       </c>
       <c r="K193" s="86">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L193" s="86">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="M193" s="86">
         <v>169</v>
@@ -14025,19 +14037,19 @@
         <v>249</v>
       </c>
       <c r="R193" s="86">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S193" s="86">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="T193" s="86">
         <v>55</v>
       </c>
       <c r="U193" s="86">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="V193" s="86">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:22" ht="14.25" customHeight="1">
@@ -14050,28 +14062,28 @@
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="85">
-        <v>6547</v>
+        <v>6558</v>
       </c>
       <c r="F194" s="85">
         <v>225</v>
       </c>
       <c r="G194" s="85">
-        <v>6322</v>
+        <v>6333</v>
       </c>
       <c r="H194" s="86">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I194" s="86">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="J194" s="86">
         <v>216</v>
       </c>
       <c r="K194" s="86">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L194" s="86">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="M194" s="86">
         <v>163</v>
@@ -14089,19 +14101,19 @@
         <v>239</v>
       </c>
       <c r="R194" s="86">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S194" s="86">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="T194" s="86">
         <v>58</v>
       </c>
       <c r="U194" s="86">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="V194" s="86">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="195" spans="1:22" ht="14.25" customHeight="1">
@@ -14114,28 +14126,28 @@
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="85">
-        <v>6583</v>
+        <v>6595</v>
       </c>
       <c r="F195" s="85">
         <v>222</v>
       </c>
       <c r="G195" s="85">
-        <v>6361</v>
+        <v>6373</v>
       </c>
       <c r="H195" s="86">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I195" s="86">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="J195" s="86">
         <v>217</v>
       </c>
       <c r="K195" s="86">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L195" s="86">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="M195" s="86">
         <v>174</v>
@@ -14153,19 +14165,19 @@
         <v>234</v>
       </c>
       <c r="R195" s="86">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S195" s="86">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="T195" s="86">
         <v>59</v>
       </c>
       <c r="U195" s="86">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V195" s="86">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:22" ht="14.25" customHeight="1">
@@ -14178,28 +14190,28 @@
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="85">
-        <v>6563</v>
+        <v>6575</v>
       </c>
       <c r="F196" s="85">
         <v>223</v>
       </c>
       <c r="G196" s="85">
-        <v>6340</v>
+        <v>6352</v>
       </c>
       <c r="H196" s="86">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I196" s="86">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="J196" s="86">
         <v>205</v>
       </c>
       <c r="K196" s="86">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L196" s="86">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="M196" s="86">
         <v>175</v>
@@ -14217,19 +14229,19 @@
         <v>232</v>
       </c>
       <c r="R196" s="86">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S196" s="86">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="T196" s="86">
         <v>57</v>
       </c>
       <c r="U196" s="86">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V196" s="86">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:22" ht="14.25" customHeight="1">
@@ -14242,28 +14254,28 @@
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="85">
-        <v>6573</v>
+        <v>6586</v>
       </c>
       <c r="F197" s="85">
         <v>225</v>
       </c>
       <c r="G197" s="85">
-        <v>6348</v>
+        <v>6361</v>
       </c>
       <c r="H197" s="86">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I197" s="86">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="J197" s="86">
         <v>199</v>
       </c>
       <c r="K197" s="86">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L197" s="86">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="M197" s="86">
         <v>171</v>
@@ -14281,19 +14293,19 @@
         <v>232</v>
       </c>
       <c r="R197" s="86">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S197" s="86">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="T197" s="86">
         <v>55</v>
       </c>
       <c r="U197" s="86">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="V197" s="86">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:22" ht="14.25" customHeight="1">
@@ -14306,28 +14318,28 @@
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="85">
-        <v>6596</v>
+        <v>6609</v>
       </c>
       <c r="F198" s="85">
         <v>221</v>
       </c>
       <c r="G198" s="85">
-        <v>6375</v>
+        <v>6388</v>
       </c>
       <c r="H198" s="86">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I198" s="86">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="J198" s="86">
         <v>221</v>
       </c>
       <c r="K198" s="86">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L198" s="86">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="M198" s="86">
         <v>182</v>
@@ -14345,19 +14357,19 @@
         <v>242</v>
       </c>
       <c r="R198" s="86">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S198" s="86">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="T198" s="86">
         <v>58</v>
       </c>
       <c r="U198" s="86">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V198" s="86">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="199" spans="1:22" ht="14.25" customHeight="1">
@@ -14370,28 +14382,28 @@
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="85">
-        <v>6581</v>
+        <v>6595</v>
       </c>
       <c r="F199" s="85">
         <v>213</v>
       </c>
       <c r="G199" s="85">
-        <v>6368</v>
+        <v>6382</v>
       </c>
       <c r="H199" s="86">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I199" s="86">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="J199" s="86">
         <v>231</v>
       </c>
       <c r="K199" s="86">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L199" s="86">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="M199" s="86">
         <v>178</v>
@@ -14409,19 +14421,19 @@
         <v>238</v>
       </c>
       <c r="R199" s="86">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S199" s="86">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="T199" s="86">
         <v>54</v>
       </c>
       <c r="U199" s="86">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V199" s="86">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="200" spans="1:22" ht="14.25" customHeight="1">
@@ -14434,28 +14446,28 @@
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="85">
-        <v>6552</v>
+        <v>6566</v>
       </c>
       <c r="F200" s="85">
         <v>200</v>
       </c>
       <c r="G200" s="85">
-        <v>6352</v>
+        <v>6366</v>
       </c>
       <c r="H200" s="86">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I200" s="86">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="J200" s="86">
         <v>213</v>
       </c>
       <c r="K200" s="86">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L200" s="86">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="M200" s="86">
         <v>164</v>
@@ -14473,19 +14485,19 @@
         <v>229</v>
       </c>
       <c r="R200" s="86">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S200" s="86">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="T200" s="86">
         <v>52</v>
       </c>
       <c r="U200" s="86">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="V200" s="86">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="201" spans="1:22" ht="14.25" customHeight="1">
@@ -14498,28 +14510,28 @@
       </c>
       <c r="D201" s="31"/>
       <c r="E201" s="87">
-        <v>6542</v>
+        <v>6557</v>
       </c>
       <c r="F201" s="87">
         <v>177</v>
       </c>
       <c r="G201" s="87">
-        <v>6364</v>
+        <v>6379</v>
       </c>
       <c r="H201" s="87">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I201" s="87">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="J201" s="87">
         <v>210</v>
       </c>
       <c r="K201" s="87">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L201" s="87">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="M201" s="87">
         <v>157</v>
@@ -14537,19 +14549,19 @@
         <v>230</v>
       </c>
       <c r="R201" s="87">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S201" s="87">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="T201" s="87">
         <v>59</v>
       </c>
       <c r="U201" s="87">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V201" s="87">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="1:22" ht="14.25" customHeight="1">
@@ -14564,28 +14576,28 @@
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="90">
-        <v>6562</v>
+        <v>6577</v>
       </c>
       <c r="F202" s="90">
         <v>167</v>
       </c>
       <c r="G202" s="90">
-        <v>6395</v>
+        <v>6410</v>
       </c>
       <c r="H202" s="90">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I202" s="90">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="J202" s="90">
         <v>209</v>
       </c>
       <c r="K202" s="90">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L202" s="90">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="M202" s="90">
         <v>152</v>
@@ -14603,19 +14615,19 @@
         <v>225</v>
       </c>
       <c r="R202" s="90">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S202" s="90">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="T202" s="90">
         <v>62</v>
       </c>
       <c r="U202" s="90">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V202" s="90">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:22" ht="14.25" customHeight="1">
@@ -14630,28 +14642,28 @@
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="85">
-        <v>6578</v>
+        <v>6594</v>
       </c>
       <c r="F203" s="85">
         <v>187</v>
       </c>
       <c r="G203" s="85">
-        <v>6391</v>
+        <v>6407</v>
       </c>
       <c r="H203" s="86">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I203" s="86">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="J203" s="86">
         <v>213</v>
       </c>
       <c r="K203" s="86">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L203" s="86">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="M203" s="86">
         <v>160</v>
@@ -14669,19 +14681,19 @@
         <v>224</v>
       </c>
       <c r="R203" s="86">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S203" s="86">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="T203" s="86">
         <v>57</v>
       </c>
       <c r="U203" s="86">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V203" s="86">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="204" spans="1:22" ht="14.25" customHeight="1">
@@ -14694,58 +14706,58 @@
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="85">
-        <v>6620</v>
+        <v>6637</v>
       </c>
       <c r="F204" s="85">
         <v>204</v>
       </c>
       <c r="G204" s="85">
-        <v>6416</v>
+        <v>6433</v>
       </c>
       <c r="H204" s="86">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I204" s="86">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="J204" s="86">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K204" s="86">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L204" s="86">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="M204" s="86">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N204" s="86">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O204" s="86">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P204" s="86">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q204" s="86">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R204" s="86">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="S204" s="86">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="T204" s="86">
         <v>58</v>
       </c>
       <c r="U204" s="86">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V204" s="86">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="1:22" ht="14.25" customHeight="1">
@@ -14758,58 +14770,58 @@
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="85">
-        <v>6671</v>
+        <v>6688</v>
       </c>
       <c r="F205" s="85">
         <v>222</v>
       </c>
       <c r="G205" s="85">
-        <v>6450</v>
+        <v>6467</v>
       </c>
       <c r="H205" s="86">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I205" s="86">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="J205" s="86">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K205" s="86">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L205" s="86">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="M205" s="86">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N205" s="86">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O205" s="86">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P205" s="86">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q205" s="86">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R205" s="86">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S205" s="86">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="T205" s="86">
         <v>55</v>
       </c>
       <c r="U205" s="86">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V205" s="86">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" spans="1:22" ht="14.25" customHeight="1">
@@ -14822,58 +14834,58 @@
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="85">
-        <v>6698</v>
+        <v>6716</v>
       </c>
       <c r="F206" s="85">
         <v>235</v>
       </c>
       <c r="G206" s="85">
-        <v>6463</v>
+        <v>6481</v>
       </c>
       <c r="H206" s="86">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I206" s="86">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="J206" s="86">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K206" s="86">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L206" s="86">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="M206" s="86">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N206" s="86">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O206" s="86">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P206" s="86">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q206" s="86">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R206" s="86">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S206" s="86">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="T206" s="86">
         <v>53</v>
       </c>
       <c r="U206" s="86">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V206" s="86">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" spans="1:22" ht="14.25" customHeight="1">
@@ -14886,58 +14898,58 @@
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="85">
-        <v>6687</v>
+        <v>6705</v>
       </c>
       <c r="F207" s="85">
         <v>228</v>
       </c>
       <c r="G207" s="85">
-        <v>6459</v>
+        <v>6477</v>
       </c>
       <c r="H207" s="86">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I207" s="86">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="J207" s="86">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K207" s="86">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L207" s="86">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="M207" s="86">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N207" s="86">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O207" s="86">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P207" s="86">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q207" s="86">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R207" s="86">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S207" s="86">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="T207" s="86">
         <v>55</v>
       </c>
       <c r="U207" s="86">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="V207" s="86">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208" spans="1:22" ht="14.25" customHeight="1">
@@ -14950,58 +14962,58 @@
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="85">
-        <v>6660</v>
+        <v>6679</v>
       </c>
       <c r="F208" s="85">
         <v>220</v>
       </c>
       <c r="G208" s="85">
-        <v>6440</v>
+        <v>6459</v>
       </c>
       <c r="H208" s="86">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I208" s="86">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="J208" s="86">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K208" s="86">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L208" s="86">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="M208" s="86">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N208" s="86">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O208" s="86">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P208" s="86">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q208" s="86">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R208" s="86">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S208" s="86">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="T208" s="86">
         <v>57</v>
       </c>
       <c r="U208" s="86">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="V208" s="86">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:22" ht="14.25" customHeight="1">
@@ -15014,58 +15026,58 @@
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="85">
-        <v>6682</v>
+        <v>6701</v>
       </c>
       <c r="F209" s="85">
         <v>227</v>
       </c>
       <c r="G209" s="85">
-        <v>6455</v>
+        <v>6474</v>
       </c>
       <c r="H209" s="86">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I209" s="86">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="J209" s="86">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K209" s="86">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L209" s="86">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="M209" s="86">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N209" s="86">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O209" s="86">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P209" s="86">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q209" s="86">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R209" s="86">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S209" s="86">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="T209" s="86">
         <v>56</v>
       </c>
       <c r="U209" s="86">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V209" s="86">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="210" spans="1:22" ht="14.25" customHeight="1">
@@ -15078,58 +15090,58 @@
       </c>
       <c r="D210" s="30"/>
       <c r="E210" s="85">
-        <v>6715</v>
+        <v>6735</v>
       </c>
       <c r="F210" s="85">
         <v>218</v>
       </c>
       <c r="G210" s="85">
-        <v>6498</v>
+        <v>6518</v>
       </c>
       <c r="H210" s="86">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I210" s="86">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="J210" s="86">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K210" s="86">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L210" s="86">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="M210" s="86">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N210" s="86">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O210" s="86">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P210" s="86">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q210" s="86">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R210" s="86">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S210" s="86">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="T210" s="86">
         <v>56</v>
       </c>
       <c r="U210" s="86">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="V210" s="86">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:22" ht="14.25" customHeight="1">
@@ -15142,58 +15154,58 @@
       </c>
       <c r="D211" s="30"/>
       <c r="E211" s="85">
-        <v>6725</v>
+        <v>6745</v>
       </c>
       <c r="F211" s="85">
         <v>213</v>
       </c>
       <c r="G211" s="85">
-        <v>6512</v>
+        <v>6532</v>
       </c>
       <c r="H211" s="86">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I211" s="86">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="J211" s="86">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K211" s="86">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L211" s="86">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="M211" s="86">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N211" s="86">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O211" s="86">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P211" s="86">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q211" s="86">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R211" s="86">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S211" s="86">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="T211" s="86">
         <v>59</v>
       </c>
       <c r="U211" s="86">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V211" s="86">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:22" ht="14.25" customHeight="1">
@@ -15206,58 +15218,58 @@
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="85">
-        <v>6709</v>
+        <v>6730</v>
       </c>
       <c r="F212" s="85">
         <v>210</v>
       </c>
       <c r="G212" s="85">
-        <v>6499</v>
+        <v>6520</v>
       </c>
       <c r="H212" s="86">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I212" s="86">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="J212" s="86">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K212" s="86">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L212" s="86">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="M212" s="86">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N212" s="86">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O212" s="86">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P212" s="86">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q212" s="86">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R212" s="86">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S212" s="86">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="T212" s="86">
         <v>54</v>
       </c>
       <c r="U212" s="86">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V212" s="86">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:22" ht="14.25" customHeight="1">
@@ -15270,63 +15282,63 @@
       </c>
       <c r="D213" s="31"/>
       <c r="E213" s="87">
-        <v>6656</v>
+        <v>6677</v>
       </c>
       <c r="F213" s="87">
         <v>190</v>
       </c>
       <c r="G213" s="87">
-        <v>6467</v>
+        <v>6488</v>
       </c>
       <c r="H213" s="87">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I213" s="87">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="J213" s="87">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K213" s="87">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L213" s="87">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="M213" s="87">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N213" s="87">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O213" s="87">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P213" s="87">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q213" s="87">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R213" s="87">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S213" s="87">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="T213" s="87">
         <v>56</v>
       </c>
       <c r="U213" s="87">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V213" s="87">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:22" ht="14.25" customHeight="1">
       <c r="A214" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B214" s="33" t="s">
         <v>11</v>
@@ -15336,58 +15348,58 @@
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="90">
-        <v>6628</v>
+        <v>6650</v>
       </c>
       <c r="F214" s="90">
         <v>172</v>
       </c>
       <c r="G214" s="90">
-        <v>6456</v>
+        <v>6478</v>
       </c>
       <c r="H214" s="90">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I214" s="90">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="J214" s="90">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K214" s="90">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L214" s="90">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="M214" s="90">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N214" s="90">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O214" s="90">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P214" s="90">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q214" s="90">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R214" s="90">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S214" s="90">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="T214" s="90">
         <v>52</v>
       </c>
       <c r="U214" s="90">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V214" s="90">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:22" ht="14.25" customHeight="1">
@@ -15402,58 +15414,58 @@
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="85">
-        <v>6656</v>
+        <v>6679</v>
       </c>
       <c r="F215" s="85">
         <v>178</v>
       </c>
       <c r="G215" s="85">
-        <v>6478</v>
+        <v>6501</v>
       </c>
       <c r="H215" s="86">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I215" s="86">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="J215" s="86">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K215" s="86">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L215" s="86">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="M215" s="86">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N215" s="86">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O215" s="86">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P215" s="86">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q215" s="86">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R215" s="86">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S215" s="86">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="T215" s="86">
         <v>54</v>
       </c>
       <c r="U215" s="86">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="V215" s="86">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="216" spans="1:22" ht="14.25" customHeight="1">
@@ -15466,58 +15478,58 @@
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="85">
-        <v>6687</v>
+        <v>6710</v>
       </c>
       <c r="F216" s="85">
         <v>195</v>
       </c>
       <c r="G216" s="85">
-        <v>6491</v>
+        <v>6514</v>
       </c>
       <c r="H216" s="86">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I216" s="86">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="J216" s="86">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K216" s="86">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L216" s="86">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="M216" s="86">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N216" s="86">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O216" s="86">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P216" s="86">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q216" s="86">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R216" s="86">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S216" s="86">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="T216" s="86">
         <v>57</v>
       </c>
       <c r="U216" s="86">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="V216" s="86">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="1:22" ht="14.25" customHeight="1">
@@ -15530,63 +15542,63 @@
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="85">
-        <v>6708</v>
+        <v>6732</v>
       </c>
       <c r="F217" s="85">
         <v>210</v>
       </c>
       <c r="G217" s="85">
-        <v>6498</v>
+        <v>6522</v>
       </c>
       <c r="H217" s="86">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I217" s="86">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="J217" s="86">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K217" s="86">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L217" s="86">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="M217" s="86">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N217" s="86">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O217" s="86">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P217" s="86">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q217" s="86">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R217" s="86">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S217" s="86">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="T217" s="86">
         <v>54</v>
       </c>
       <c r="U217" s="86">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="V217" s="86">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:22" ht="14.25" customHeight="1">
       <c r="A218" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B218" s="13" t="s">
         <v>3</v>
@@ -15596,58 +15608,58 @@
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="85">
-        <v>6732</v>
+        <v>6756</v>
       </c>
       <c r="F218" s="85">
         <v>225</v>
       </c>
       <c r="G218" s="85">
-        <v>6507</v>
+        <v>6531</v>
       </c>
       <c r="H218" s="86">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I218" s="86">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="J218" s="86">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K218" s="86">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L218" s="86">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="M218" s="86">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N218" s="86">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O218" s="86">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P218" s="86">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q218" s="86">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R218" s="86">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S218" s="86">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="T218" s="86">
         <v>49</v>
       </c>
       <c r="U218" s="86">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V218" s="86">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:22" ht="14.25" customHeight="1">
@@ -15660,58 +15672,58 @@
       </c>
       <c r="D219" s="30"/>
       <c r="E219" s="85">
-        <v>6747</v>
+        <v>6772</v>
       </c>
       <c r="F219" s="85">
         <v>222</v>
       </c>
       <c r="G219" s="85">
-        <v>6525</v>
+        <v>6550</v>
       </c>
       <c r="H219" s="86">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I219" s="86">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="J219" s="86">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K219" s="86">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L219" s="86">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="M219" s="86">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N219" s="86">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O219" s="86">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P219" s="86">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q219" s="86">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R219" s="86">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="S219" s="86">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="T219" s="86">
         <v>50</v>
       </c>
       <c r="U219" s="86">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="V219" s="86">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:22" ht="14.25" customHeight="1">
@@ -15724,58 +15736,58 @@
       </c>
       <c r="D220" s="30"/>
       <c r="E220" s="85">
-        <v>6731</v>
+        <v>6756</v>
       </c>
       <c r="F220" s="85">
         <v>217</v>
       </c>
       <c r="G220" s="85">
-        <v>6515</v>
+        <v>6540</v>
       </c>
       <c r="H220" s="86">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I220" s="86">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="J220" s="86">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K220" s="86">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L220" s="86">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="M220" s="86">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N220" s="86">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O220" s="86">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P220" s="86">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q220" s="86">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R220" s="86">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="S220" s="86">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="T220" s="86">
         <v>55</v>
       </c>
       <c r="U220" s="86">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="V220" s="86">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="221" spans="1:22" ht="14.25" customHeight="1">
@@ -15788,58 +15800,58 @@
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="85">
-        <v>6751</v>
+        <v>6777</v>
       </c>
       <c r="F221" s="85">
         <v>223</v>
       </c>
       <c r="G221" s="85">
-        <v>6528</v>
+        <v>6554</v>
       </c>
       <c r="H221" s="86">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I221" s="86">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="J221" s="86">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K221" s="86">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L221" s="86">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="M221" s="86">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N221" s="86">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O221" s="86">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P221" s="86">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q221" s="86">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R221" s="86">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="S221" s="86">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="T221" s="86">
         <v>57</v>
       </c>
       <c r="U221" s="86">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="V221" s="86">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="222" spans="1:22" ht="14.25" customHeight="1">
@@ -15852,58 +15864,58 @@
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="85">
-        <v>6768</v>
+        <v>6794</v>
       </c>
       <c r="F222" s="85">
         <v>224</v>
       </c>
       <c r="G222" s="85">
-        <v>6545</v>
+        <v>6571</v>
       </c>
       <c r="H222" s="86">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I222" s="86">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="J222" s="86">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K222" s="86">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L222" s="86">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="M222" s="86">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N222" s="86">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O222" s="86">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P222" s="86">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q222" s="86">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R222" s="86">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S222" s="86">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="T222" s="86">
         <v>53</v>
       </c>
       <c r="U222" s="86">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="V222" s="86">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:22" ht="14.25" customHeight="1">
@@ -15916,58 +15928,58 @@
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="85">
-        <v>6787</v>
+        <v>6814</v>
       </c>
       <c r="F223" s="85">
         <v>218</v>
       </c>
       <c r="G223" s="85">
-        <v>6569</v>
+        <v>6596</v>
       </c>
       <c r="H223" s="86">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I223" s="86">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="J223" s="86">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K223" s="86">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L223" s="86">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="M223" s="86">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N223" s="86">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O223" s="86">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P223" s="86">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q223" s="86">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R223" s="86">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="S223" s="86">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="T223" s="86">
         <v>56</v>
       </c>
       <c r="U223" s="86">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="V223" s="86">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:22" ht="14.25" customHeight="1">
@@ -15980,58 +15992,58 @@
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="85">
-        <v>6762</v>
+        <v>6790</v>
       </c>
       <c r="F224" s="85">
         <v>212</v>
       </c>
       <c r="G224" s="85">
-        <v>6550</v>
+        <v>6578</v>
       </c>
       <c r="H224" s="86">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I224" s="86">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="J224" s="86">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K224" s="86">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L224" s="86">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="M224" s="86">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N224" s="86">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O224" s="86">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P224" s="86">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q224" s="86">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R224" s="86">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="S224" s="86">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="T224" s="86">
         <v>57</v>
       </c>
       <c r="U224" s="86">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="V224" s="86">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:22" ht="14.25" customHeight="1">
@@ -16044,63 +16056,63 @@
       </c>
       <c r="D225" s="31"/>
       <c r="E225" s="87">
-        <v>6737</v>
+        <v>6765</v>
       </c>
       <c r="F225" s="87">
         <v>195</v>
       </c>
       <c r="G225" s="87">
-        <v>6542</v>
+        <v>6570</v>
       </c>
       <c r="H225" s="87">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I225" s="87">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="J225" s="87">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K225" s="87">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L225" s="87">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="M225" s="87">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N225" s="87">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O225" s="87">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P225" s="87">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q225" s="87">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R225" s="87">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="S225" s="87">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="T225" s="87">
         <v>54</v>
       </c>
       <c r="U225" s="87">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="V225" s="87">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="226" spans="1:22" ht="14.25" customHeight="1">
       <c r="A226" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B226" s="33" t="s">
         <v>11</v>
@@ -16110,58 +16122,58 @@
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="90">
-        <v>6687</v>
+        <v>6716</v>
       </c>
       <c r="F226" s="90">
         <v>184</v>
       </c>
       <c r="G226" s="90">
-        <v>6504</v>
+        <v>6533</v>
       </c>
       <c r="H226" s="90">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I226" s="90">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="J226" s="90">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K226" s="90">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L226" s="90">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="M226" s="90">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N226" s="90">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O226" s="90">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P226" s="90">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q226" s="90">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R226" s="90">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="S226" s="90">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="T226" s="90">
         <v>50</v>
       </c>
       <c r="U226" s="90">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="V226" s="90">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="227" spans="1:22" ht="14.25" customHeight="1">
@@ -16176,58 +16188,58 @@
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="85">
-        <v>6691</v>
+        <v>6720</v>
       </c>
       <c r="F227" s="85">
         <v>175</v>
       </c>
       <c r="G227" s="85">
-        <v>6516</v>
+        <v>6545</v>
       </c>
       <c r="H227" s="86">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I227" s="86">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="J227" s="86">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K227" s="86">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L227" s="86">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="M227" s="86">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N227" s="86">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O227" s="86">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P227" s="86">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q227" s="86">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R227" s="86">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S227" s="86">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="T227" s="86">
         <v>47</v>
       </c>
       <c r="U227" s="86">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="V227" s="86">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="228" spans="1:22" ht="14.25" customHeight="1">
@@ -16240,58 +16252,58 @@
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="85">
-        <v>6700</v>
+        <v>6730</v>
       </c>
       <c r="F228" s="85">
         <v>188</v>
       </c>
       <c r="G228" s="85">
-        <v>6512</v>
+        <v>6542</v>
       </c>
       <c r="H228" s="86">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I228" s="86">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="J228" s="86">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K228" s="86">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L228" s="86">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="M228" s="86">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N228" s="86">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O228" s="86">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P228" s="86">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q228" s="86">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R228" s="86">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="S228" s="86">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="T228" s="86">
         <v>53</v>
       </c>
       <c r="U228" s="86">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="V228" s="86">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:22" ht="14.25" customHeight="1">
@@ -16304,58 +16316,58 @@
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="85">
-        <v>6628</v>
+        <v>6658</v>
       </c>
       <c r="F229" s="85">
         <v>211</v>
       </c>
       <c r="G229" s="85">
-        <v>6418</v>
+        <v>6448</v>
       </c>
       <c r="H229" s="86">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I229" s="86">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="J229" s="86">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K229" s="86">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L229" s="86">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="M229" s="86">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N229" s="86">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O229" s="86">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P229" s="86">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q229" s="86">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R229" s="86">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="S229" s="86">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="T229" s="86">
         <v>52</v>
       </c>
       <c r="U229" s="86">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="V229" s="86">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:22" ht="14.25" customHeight="1">
@@ -16368,58 +16380,58 @@
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="85">
-        <v>6656</v>
+        <v>6687</v>
       </c>
       <c r="F230" s="85">
         <v>217</v>
       </c>
       <c r="G230" s="85">
-        <v>6439</v>
+        <v>6470</v>
       </c>
       <c r="H230" s="86">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I230" s="86">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="J230" s="86">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K230" s="86">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L230" s="86">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="M230" s="86">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N230" s="86">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O230" s="86">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P230" s="86">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q230" s="86">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R230" s="86">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="S230" s="86">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="T230" s="86">
         <v>50</v>
       </c>
       <c r="U230" s="86">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="V230" s="86">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:22" ht="14.25" customHeight="1">
@@ -16432,58 +16444,58 @@
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="85">
-        <v>6670</v>
+        <v>6701</v>
       </c>
       <c r="F231" s="85">
         <v>215</v>
       </c>
       <c r="G231" s="85">
-        <v>6455</v>
+        <v>6486</v>
       </c>
       <c r="H231" s="86">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I231" s="86">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="J231" s="86">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K231" s="86">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L231" s="86">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="M231" s="86">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N231" s="86">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O231" s="86">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P231" s="86">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q231" s="86">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R231" s="86">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="S231" s="86">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="T231" s="86">
         <v>49</v>
       </c>
       <c r="U231" s="86">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="V231" s="86">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:22" ht="14.25" customHeight="1">
@@ -16496,58 +16508,58 @@
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="85">
-        <v>6655</v>
+        <v>6687</v>
       </c>
       <c r="F232" s="85">
         <v>209</v>
       </c>
       <c r="G232" s="85">
-        <v>6445</v>
+        <v>6477</v>
       </c>
       <c r="H232" s="86">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="I232" s="86">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="J232" s="86">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K232" s="86">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L232" s="86">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="M232" s="86">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N232" s="86">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O232" s="86">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P232" s="86">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q232" s="86">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R232" s="86">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S232" s="86">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="T232" s="86">
         <v>50</v>
       </c>
       <c r="U232" s="86">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="V232" s="86">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:22" ht="14.25" customHeight="1">
@@ -16560,58 +16572,58 @@
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="85">
-        <v>6676</v>
+        <v>6708</v>
       </c>
       <c r="F233" s="85">
         <v>212</v>
       </c>
       <c r="G233" s="85">
-        <v>6464</v>
+        <v>6496</v>
       </c>
       <c r="H233" s="86">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I233" s="86">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="J233" s="86">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K233" s="86">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L233" s="86">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="M233" s="86">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N233" s="86">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O233" s="86">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P233" s="86">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q233" s="86">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R233" s="86">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="S233" s="86">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="T233" s="86">
         <v>51</v>
       </c>
       <c r="U233" s="86">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="V233" s="86">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:22" ht="14.25" customHeight="1">
@@ -16624,58 +16636,58 @@
       </c>
       <c r="D234" s="30"/>
       <c r="E234" s="85">
-        <v>6689</v>
+        <v>6722</v>
       </c>
       <c r="F234" s="85">
         <v>199</v>
       </c>
       <c r="G234" s="85">
-        <v>6490</v>
+        <v>6523</v>
       </c>
       <c r="H234" s="86">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I234" s="86">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="J234" s="86">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K234" s="86">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L234" s="86">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="M234" s="86">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N234" s="86">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O234" s="86">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P234" s="86">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q234" s="86">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R234" s="86">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="S234" s="86">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="T234" s="86">
         <v>51</v>
       </c>
       <c r="U234" s="86">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="V234" s="86">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:22" ht="14.25" customHeight="1">
@@ -16688,58 +16700,58 @@
       </c>
       <c r="D235" s="30"/>
       <c r="E235" s="85">
-        <v>6694</v>
+        <v>6736</v>
       </c>
       <c r="F235" s="85">
         <v>206</v>
       </c>
       <c r="G235" s="85">
-        <v>6489</v>
+        <v>6530</v>
       </c>
       <c r="H235" s="86">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I235" s="86">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="J235" s="86">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K235" s="86">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L235" s="86">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="M235" s="86">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N235" s="86">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O235" s="86">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P235" s="86">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q235" s="86">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="R235" s="86">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="S235" s="86">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="T235" s="86">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U235" s="86">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="V235" s="86">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="236" spans="1:22" ht="14.25" customHeight="1">
@@ -16752,58 +16764,58 @@
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="85">
-        <v>6707</v>
+        <v>6750</v>
       </c>
       <c r="F236" s="85">
         <v>201</v>
       </c>
       <c r="G236" s="85">
-        <v>6506</v>
+        <v>6549</v>
       </c>
       <c r="H236" s="86">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I236" s="86">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="J236" s="86">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K236" s="86">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L236" s="86">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="M236" s="86">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N236" s="86">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O236" s="86">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P236" s="86">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q236" s="86">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R236" s="86">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="S236" s="86">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="T236" s="86">
         <v>52</v>
       </c>
       <c r="U236" s="86">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="V236" s="86">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:22" ht="14.25" customHeight="1">
@@ -16816,63 +16828,63 @@
       </c>
       <c r="D237" s="31"/>
       <c r="E237" s="87">
-        <v>6666</v>
+        <v>6708</v>
       </c>
       <c r="F237" s="87">
         <v>182</v>
       </c>
       <c r="G237" s="87">
-        <v>6484</v>
+        <v>6526</v>
       </c>
       <c r="H237" s="87">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="I237" s="87">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="J237" s="87">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K237" s="87">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L237" s="87">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="M237" s="87">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N237" s="87">
         <v>136</v>
       </c>
       <c r="O237" s="87">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P237" s="87">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q237" s="87">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R237" s="87">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="S237" s="87">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="T237" s="87">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U237" s="87">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="V237" s="87">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238" spans="1:22" ht="14.25" customHeight="1">
       <c r="A238" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B238" s="33" t="s">
         <v>11</v>
@@ -16882,58 +16894,58 @@
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="90">
-        <v>6637</v>
+        <v>6678</v>
       </c>
       <c r="F238" s="90">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G238" s="90">
-        <v>6459</v>
+        <v>6500</v>
       </c>
       <c r="H238" s="90">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I238" s="90">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="J238" s="90">
+        <v>255</v>
+      </c>
+      <c r="K238" s="90">
+        <v>367</v>
+      </c>
+      <c r="L238" s="90">
+        <v>1068</v>
+      </c>
+      <c r="M238" s="90">
+        <v>161</v>
+      </c>
+      <c r="N238" s="90">
+        <v>140</v>
+      </c>
+      <c r="O238" s="90">
         <v>253</v>
       </c>
-      <c r="K238" s="90">
-        <v>365</v>
-      </c>
-      <c r="L238" s="90">
-        <v>1062</v>
-      </c>
-      <c r="M238" s="90">
-        <v>160</v>
-      </c>
-      <c r="N238" s="90">
-        <v>139</v>
-      </c>
-      <c r="O238" s="90">
-        <v>251</v>
-      </c>
       <c r="P238" s="90">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q238" s="90">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R238" s="90">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="S238" s="90">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="T238" s="90">
         <v>50</v>
       </c>
       <c r="U238" s="90">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="V238" s="90">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:22" ht="14.25" customHeight="1">
@@ -16948,58 +16960,58 @@
       </c>
       <c r="D239" s="30"/>
       <c r="E239" s="85">
-        <v>6646</v>
+        <v>6693</v>
       </c>
       <c r="F239" s="85">
         <v>171</v>
       </c>
       <c r="G239" s="85">
-        <v>6476</v>
+        <v>6522</v>
       </c>
       <c r="H239" s="86">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="I239" s="86">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="J239" s="86">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K239" s="86">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L239" s="86">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="M239" s="86">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N239" s="86">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O239" s="86">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P239" s="86">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q239" s="86">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R239" s="86">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="S239" s="86">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="T239" s="86">
         <v>46</v>
       </c>
       <c r="U239" s="86">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="V239" s="86">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="240" spans="1:22" ht="14.25" customHeight="1">
@@ -17012,58 +17024,58 @@
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="85">
-        <v>6649</v>
+        <v>6695</v>
       </c>
       <c r="F240" s="85">
         <v>187</v>
       </c>
       <c r="G240" s="85">
-        <v>6462</v>
+        <v>6508</v>
       </c>
       <c r="H240" s="86">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="I240" s="86">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="J240" s="86">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K240" s="86">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L240" s="86">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="M240" s="86">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N240" s="86">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O240" s="86">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P240" s="86">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q240" s="86">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="R240" s="86">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="S240" s="86">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="T240" s="86">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U240" s="86">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="V240" s="86">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="241" spans="1:22" ht="14.25" customHeight="1">
@@ -17076,58 +17088,58 @@
       </c>
       <c r="D241" s="30"/>
       <c r="E241" s="85">
-        <v>6657</v>
+        <v>6703</v>
       </c>
       <c r="F241" s="85">
         <v>215</v>
       </c>
       <c r="G241" s="85">
-        <v>6443</v>
+        <v>6488</v>
       </c>
       <c r="H241" s="86">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="I241" s="86">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="J241" s="86">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K241" s="86">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L241" s="86">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="M241" s="86">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N241" s="86">
         <v>132</v>
       </c>
       <c r="O241" s="86">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P241" s="86">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q241" s="86">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R241" s="86">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="S241" s="86">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="T241" s="86">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U241" s="86">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="V241" s="86">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" spans="1:22" ht="14.25" customHeight="1">
@@ -17140,58 +17152,58 @@
       </c>
       <c r="D242" s="30"/>
       <c r="E242" s="85">
-        <v>6667</v>
+        <v>6713</v>
       </c>
       <c r="F242" s="85">
         <v>210</v>
       </c>
       <c r="G242" s="85">
-        <v>6457</v>
+        <v>6503</v>
       </c>
       <c r="H242" s="86">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="I242" s="86">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="J242" s="86">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K242" s="86">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L242" s="86">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="M242" s="86">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N242" s="86">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O242" s="86">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P242" s="86">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q242" s="86">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R242" s="86">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="S242" s="86">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="T242" s="86">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U242" s="86">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="V242" s="86">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="243" spans="1:22" ht="14.25" customHeight="1">
@@ -17204,58 +17216,58 @@
       </c>
       <c r="D243" s="30"/>
       <c r="E243" s="85">
-        <v>6692</v>
+        <v>6738</v>
       </c>
       <c r="F243" s="85">
         <v>204</v>
       </c>
       <c r="G243" s="85">
-        <v>6488</v>
+        <v>6534</v>
       </c>
       <c r="H243" s="86">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="I243" s="86">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="J243" s="86">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K243" s="86">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L243" s="86">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="M243" s="86">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N243" s="86">
         <v>139</v>
       </c>
       <c r="O243" s="86">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P243" s="86">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q243" s="86">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R243" s="86">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="S243" s="86">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="T243" s="86">
         <v>50</v>
       </c>
       <c r="U243" s="86">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="V243" s="86">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:22" ht="14.25" customHeight="1">
@@ -17268,58 +17280,58 @@
       </c>
       <c r="D244" s="30"/>
       <c r="E244" s="85">
-        <v>6711</v>
+        <v>6757</v>
       </c>
       <c r="F244" s="85">
         <v>215</v>
       </c>
       <c r="G244" s="85">
-        <v>6496</v>
+        <v>6542</v>
       </c>
       <c r="H244" s="86">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="I244" s="86">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="J244" s="86">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K244" s="86">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L244" s="86">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="M244" s="86">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N244" s="86">
         <v>148</v>
       </c>
       <c r="O244" s="86">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P244" s="86">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q244" s="86">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R244" s="86">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="S244" s="86">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="T244" s="86">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U244" s="86">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="V244" s="86">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="245" spans="1:22" ht="14.25" customHeight="1">
@@ -17332,58 +17344,58 @@
       </c>
       <c r="D245" s="30"/>
       <c r="E245" s="85">
-        <v>6693</v>
+        <v>6739</v>
       </c>
       <c r="F245" s="85">
         <v>218</v>
       </c>
       <c r="G245" s="85">
-        <v>6475</v>
+        <v>6521</v>
       </c>
       <c r="H245" s="86">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I245" s="86">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="J245" s="86">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K245" s="86">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L245" s="86">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="M245" s="86">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N245" s="86">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O245" s="86">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P245" s="86">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q245" s="86">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R245" s="86">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="S245" s="86">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="T245" s="86">
         <v>52</v>
       </c>
       <c r="U245" s="86">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="V245" s="86">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="246" spans="1:22" ht="14.25" customHeight="1">
@@ -17396,58 +17408,58 @@
       </c>
       <c r="D246" s="30"/>
       <c r="E246" s="85">
-        <v>6679</v>
+        <v>6726</v>
       </c>
       <c r="F246" s="85">
         <v>202</v>
       </c>
       <c r="G246" s="85">
-        <v>6477</v>
+        <v>6523</v>
       </c>
       <c r="H246" s="86">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="I246" s="86">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="J246" s="86">
+        <v>261</v>
+      </c>
+      <c r="K246" s="86">
+        <v>342</v>
+      </c>
+      <c r="L246" s="86">
+        <v>1067</v>
+      </c>
+      <c r="M246" s="86">
+        <v>182</v>
+      </c>
+      <c r="N246" s="86">
+        <v>144</v>
+      </c>
+      <c r="O246" s="86">
         <v>259</v>
       </c>
-      <c r="K246" s="86">
-        <v>340</v>
-      </c>
-      <c r="L246" s="86">
-        <v>1059</v>
-      </c>
-      <c r="M246" s="86">
-        <v>181</v>
-      </c>
-      <c r="N246" s="86">
-        <v>143</v>
-      </c>
-      <c r="O246" s="86">
-        <v>257</v>
-      </c>
       <c r="P246" s="86">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q246" s="86">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R246" s="86">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="S246" s="86">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="T246" s="86">
         <v>55</v>
       </c>
       <c r="U246" s="86">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="V246" s="86">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="247" spans="1:22" ht="14.25" customHeight="1">
@@ -17460,58 +17472,58 @@
       </c>
       <c r="D247" s="30"/>
       <c r="E247" s="85">
-        <v>6659</v>
+        <v>6705</v>
       </c>
       <c r="F247" s="85">
         <v>187</v>
       </c>
       <c r="G247" s="85">
-        <v>6472</v>
+        <v>6518</v>
       </c>
       <c r="H247" s="86">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="I247" s="86">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="J247" s="86">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K247" s="86">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L247" s="86">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="M247" s="86">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N247" s="86">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O247" s="86">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P247" s="86">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q247" s="86">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R247" s="86">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="S247" s="86">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="T247" s="86">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U247" s="86">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="V247" s="86">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:22" ht="14.25" customHeight="1">
@@ -17523,24 +17535,60 @@
         <v>22</v>
       </c>
       <c r="D248" s="30"/>
-      <c r="E248" s="85"/>
-      <c r="F248" s="85"/>
-      <c r="G248" s="85"/>
-      <c r="H248" s="86"/>
-      <c r="I248" s="86"/>
-      <c r="J248" s="86"/>
-      <c r="K248" s="86"/>
-      <c r="L248" s="86"/>
-      <c r="M248" s="86"/>
-      <c r="N248" s="86"/>
-      <c r="O248" s="86"/>
-      <c r="P248" s="86"/>
-      <c r="Q248" s="86"/>
-      <c r="R248" s="86"/>
-      <c r="S248" s="86"/>
-      <c r="T248" s="86"/>
-      <c r="U248" s="86"/>
-      <c r="V248" s="86"/>
+      <c r="E248" s="85">
+        <v>6696</v>
+      </c>
+      <c r="F248" s="85">
+        <v>182</v>
+      </c>
+      <c r="G248" s="85">
+        <v>6514</v>
+      </c>
+      <c r="H248" s="86">
+        <v>474</v>
+      </c>
+      <c r="I248" s="86">
+        <v>1029</v>
+      </c>
+      <c r="J248" s="86">
+        <v>272</v>
+      </c>
+      <c r="K248" s="86">
+        <v>365</v>
+      </c>
+      <c r="L248" s="86">
+        <v>1060</v>
+      </c>
+      <c r="M248" s="86">
+        <v>173</v>
+      </c>
+      <c r="N248" s="86">
+        <v>148</v>
+      </c>
+      <c r="O248" s="86">
+        <v>248</v>
+      </c>
+      <c r="P248" s="86">
+        <v>374</v>
+      </c>
+      <c r="Q248" s="86">
+        <v>224</v>
+      </c>
+      <c r="R248" s="86">
+        <v>357</v>
+      </c>
+      <c r="S248" s="86">
+        <v>897</v>
+      </c>
+      <c r="T248" s="86">
+        <v>50</v>
+      </c>
+      <c r="U248" s="86">
+        <v>455</v>
+      </c>
+      <c r="V248" s="86">
+        <v>236</v>
+      </c>
     </row>
     <row r="249" spans="1:22" ht="14.25" customHeight="1">
       <c r="A249" s="10"/>
@@ -17551,86 +17599,534 @@
         <v>23</v>
       </c>
       <c r="D249" s="31"/>
-      <c r="E249" s="87"/>
-      <c r="F249" s="87"/>
-      <c r="G249" s="87"/>
-      <c r="H249" s="87"/>
-      <c r="I249" s="87"/>
-      <c r="J249" s="87"/>
-      <c r="K249" s="87"/>
-      <c r="L249" s="87"/>
-      <c r="M249" s="87"/>
-      <c r="N249" s="87"/>
-      <c r="O249" s="87"/>
-      <c r="P249" s="87"/>
-      <c r="Q249" s="87"/>
-      <c r="R249" s="87"/>
-      <c r="S249" s="87"/>
-      <c r="T249" s="87"/>
-      <c r="U249" s="87"/>
-      <c r="V249" s="87"/>
-    </row>
-    <row r="250" spans="1:22" ht="3" customHeight="1" thickBot="1">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="18"/>
-      <c r="D250" s="32"/>
-      <c r="E250" s="92"/>
-      <c r="F250" s="92"/>
-      <c r="G250" s="92"/>
-      <c r="H250" s="92"/>
-      <c r="I250" s="92"/>
-      <c r="J250" s="92"/>
-      <c r="K250" s="92"/>
-      <c r="L250" s="92"/>
-      <c r="M250" s="92"/>
-      <c r="N250" s="92"/>
-      <c r="O250" s="92"/>
-      <c r="P250" s="92"/>
-      <c r="Q250" s="92"/>
-      <c r="R250" s="92"/>
-      <c r="S250" s="92"/>
-      <c r="T250" s="92"/>
-      <c r="U250" s="92"/>
-      <c r="V250" s="92"/>
-    </row>
-    <row r="251" spans="1:22" ht="3" customHeight="1">
-      <c r="A251" s="13"/>
-      <c r="B251" s="13"/>
-      <c r="C251" s="16"/>
-      <c r="D251" s="95"/>
-      <c r="E251" s="85"/>
-      <c r="F251" s="85"/>
-      <c r="G251" s="85"/>
-      <c r="H251" s="85"/>
-      <c r="I251" s="85"/>
-      <c r="J251" s="85"/>
-      <c r="K251" s="85"/>
-      <c r="L251" s="85"/>
-      <c r="M251" s="85"/>
-      <c r="N251" s="85"/>
-      <c r="O251" s="85"/>
-      <c r="P251" s="85"/>
-      <c r="Q251" s="85"/>
-      <c r="R251" s="85"/>
-      <c r="S251" s="85"/>
-      <c r="T251" s="85"/>
-      <c r="U251" s="85"/>
-      <c r="V251" s="85"/>
-    </row>
-    <row r="252" spans="1:22" ht="14">
-      <c r="E252" s="40" t="s">
+      <c r="E249" s="87">
+        <v>6706</v>
+      </c>
+      <c r="F249" s="87">
+        <v>171</v>
+      </c>
+      <c r="G249" s="87">
+        <v>6535</v>
+      </c>
+      <c r="H249" s="87">
+        <v>465</v>
+      </c>
+      <c r="I249" s="87">
+        <v>1060</v>
+      </c>
+      <c r="J249" s="87">
+        <v>274</v>
+      </c>
+      <c r="K249" s="87">
+        <v>357</v>
+      </c>
+      <c r="L249" s="87">
+        <v>1060</v>
+      </c>
+      <c r="M249" s="87">
+        <v>179</v>
+      </c>
+      <c r="N249" s="87">
+        <v>145</v>
+      </c>
+      <c r="O249" s="87">
+        <v>248</v>
+      </c>
+      <c r="P249" s="87">
+        <v>385</v>
+      </c>
+      <c r="Q249" s="87">
+        <v>223</v>
+      </c>
+      <c r="R249" s="87">
+        <v>345</v>
+      </c>
+      <c r="S249" s="87">
+        <v>894</v>
+      </c>
+      <c r="T249" s="87">
+        <v>50</v>
+      </c>
+      <c r="U249" s="87">
+        <v>452</v>
+      </c>
+      <c r="V249" s="87">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A250" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B250" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="35"/>
+      <c r="E250" s="90">
+        <v>6646</v>
+      </c>
+      <c r="F250" s="90">
+        <v>174</v>
+      </c>
+      <c r="G250" s="90">
+        <v>6472</v>
+      </c>
+      <c r="H250" s="90">
+        <v>475</v>
+      </c>
+      <c r="I250" s="90">
+        <v>1057</v>
+      </c>
+      <c r="J250" s="90">
+        <v>251</v>
+      </c>
+      <c r="K250" s="90">
+        <v>354</v>
+      </c>
+      <c r="L250" s="90">
+        <v>1049</v>
+      </c>
+      <c r="M250" s="90">
+        <v>159</v>
+      </c>
+      <c r="N250" s="90">
+        <v>140</v>
+      </c>
+      <c r="O250" s="90">
+        <v>259</v>
+      </c>
+      <c r="P250" s="90">
+        <v>373</v>
+      </c>
+      <c r="Q250" s="90">
+        <v>219</v>
+      </c>
+      <c r="R250" s="90">
+        <v>341</v>
+      </c>
+      <c r="S250" s="90">
+        <v>892</v>
+      </c>
+      <c r="T250" s="90">
+        <v>51</v>
+      </c>
+      <c r="U250" s="90">
+        <v>450</v>
+      </c>
+      <c r="V250" s="90">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A251" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251" s="30"/>
+      <c r="E251" s="85">
+        <v>6658</v>
+      </c>
+      <c r="F251" s="85">
+        <v>173</v>
+      </c>
+      <c r="G251" s="85">
+        <v>6485</v>
+      </c>
+      <c r="H251" s="86">
+        <v>500</v>
+      </c>
+      <c r="I251" s="86">
+        <v>1040</v>
+      </c>
+      <c r="J251" s="86">
+        <v>252</v>
+      </c>
+      <c r="K251" s="86">
+        <v>357</v>
+      </c>
+      <c r="L251" s="86">
+        <v>1054</v>
+      </c>
+      <c r="M251" s="86">
+        <v>152</v>
+      </c>
+      <c r="N251" s="86">
+        <v>143</v>
+      </c>
+      <c r="O251" s="86">
+        <v>247</v>
+      </c>
+      <c r="P251" s="86">
+        <v>371</v>
+      </c>
+      <c r="Q251" s="86">
+        <v>228</v>
+      </c>
+      <c r="R251" s="86">
+        <v>337</v>
+      </c>
+      <c r="S251" s="86">
+        <v>900</v>
+      </c>
+      <c r="T251" s="86">
+        <v>51</v>
+      </c>
+      <c r="U251" s="86">
+        <v>441</v>
+      </c>
+      <c r="V251" s="86">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A252" s="13"/>
+      <c r="B252" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252" s="30"/>
+      <c r="E252" s="85"/>
+      <c r="F252" s="85"/>
+      <c r="G252" s="85"/>
+      <c r="H252" s="86"/>
+      <c r="I252" s="86"/>
+      <c r="J252" s="86"/>
+      <c r="K252" s="86"/>
+      <c r="L252" s="86"/>
+      <c r="M252" s="86"/>
+      <c r="N252" s="86"/>
+      <c r="O252" s="86"/>
+      <c r="P252" s="86"/>
+      <c r="Q252" s="86"/>
+      <c r="R252" s="86"/>
+      <c r="S252" s="86"/>
+      <c r="T252" s="86"/>
+      <c r="U252" s="86"/>
+      <c r="V252" s="86"/>
+    </row>
+    <row r="253" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A253" s="39"/>
+      <c r="B253" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" s="30"/>
+      <c r="E253" s="85"/>
+      <c r="F253" s="85"/>
+      <c r="G253" s="85"/>
+      <c r="H253" s="86"/>
+      <c r="I253" s="86"/>
+      <c r="J253" s="86"/>
+      <c r="K253" s="86"/>
+      <c r="L253" s="86"/>
+      <c r="M253" s="86"/>
+      <c r="N253" s="86"/>
+      <c r="O253" s="86"/>
+      <c r="P253" s="86"/>
+      <c r="Q253" s="86"/>
+      <c r="R253" s="86"/>
+      <c r="S253" s="86"/>
+      <c r="T253" s="86"/>
+      <c r="U253" s="86"/>
+      <c r="V253" s="86"/>
+    </row>
+    <row r="254" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A254" s="13"/>
+      <c r="B254" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D254" s="30"/>
+      <c r="E254" s="85"/>
+      <c r="F254" s="85"/>
+      <c r="G254" s="85"/>
+      <c r="H254" s="86"/>
+      <c r="I254" s="86"/>
+      <c r="J254" s="86"/>
+      <c r="K254" s="86"/>
+      <c r="L254" s="86"/>
+      <c r="M254" s="86"/>
+      <c r="N254" s="86"/>
+      <c r="O254" s="86"/>
+      <c r="P254" s="86"/>
+      <c r="Q254" s="86"/>
+      <c r="R254" s="86"/>
+      <c r="S254" s="86"/>
+      <c r="T254" s="86"/>
+      <c r="U254" s="86"/>
+      <c r="V254" s="86"/>
+    </row>
+    <row r="255" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A255" s="13"/>
+      <c r="B255" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" s="30"/>
+      <c r="E255" s="85"/>
+      <c r="F255" s="85"/>
+      <c r="G255" s="85"/>
+      <c r="H255" s="86"/>
+      <c r="I255" s="86"/>
+      <c r="J255" s="86"/>
+      <c r="K255" s="86"/>
+      <c r="L255" s="86"/>
+      <c r="M255" s="86"/>
+      <c r="N255" s="86"/>
+      <c r="O255" s="86"/>
+      <c r="P255" s="86"/>
+      <c r="Q255" s="86"/>
+      <c r="R255" s="86"/>
+      <c r="S255" s="86"/>
+      <c r="T255" s="86"/>
+      <c r="U255" s="86"/>
+      <c r="V255" s="86"/>
+    </row>
+    <row r="256" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A256" s="13"/>
+      <c r="B256" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D256" s="30"/>
+      <c r="E256" s="85"/>
+      <c r="F256" s="85"/>
+      <c r="G256" s="85"/>
+      <c r="H256" s="86"/>
+      <c r="I256" s="86"/>
+      <c r="J256" s="86"/>
+      <c r="K256" s="86"/>
+      <c r="L256" s="86"/>
+      <c r="M256" s="86"/>
+      <c r="N256" s="86"/>
+      <c r="O256" s="86"/>
+      <c r="P256" s="86"/>
+      <c r="Q256" s="86"/>
+      <c r="R256" s="86"/>
+      <c r="S256" s="86"/>
+      <c r="T256" s="86"/>
+      <c r="U256" s="86"/>
+      <c r="V256" s="86"/>
+    </row>
+    <row r="257" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A257" s="13"/>
+      <c r="B257" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D257" s="30"/>
+      <c r="E257" s="85"/>
+      <c r="F257" s="85"/>
+      <c r="G257" s="85"/>
+      <c r="H257" s="86"/>
+      <c r="I257" s="86"/>
+      <c r="J257" s="86"/>
+      <c r="K257" s="86"/>
+      <c r="L257" s="86"/>
+      <c r="M257" s="86"/>
+      <c r="N257" s="86"/>
+      <c r="O257" s="86"/>
+      <c r="P257" s="86"/>
+      <c r="Q257" s="86"/>
+      <c r="R257" s="86"/>
+      <c r="S257" s="86"/>
+      <c r="T257" s="86"/>
+      <c r="U257" s="86"/>
+      <c r="V257" s="86"/>
+    </row>
+    <row r="258" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A258" s="13"/>
+      <c r="B258" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258" s="30"/>
+      <c r="E258" s="85"/>
+      <c r="F258" s="85"/>
+      <c r="G258" s="85"/>
+      <c r="H258" s="86"/>
+      <c r="I258" s="86"/>
+      <c r="J258" s="86"/>
+      <c r="K258" s="86"/>
+      <c r="L258" s="86"/>
+      <c r="M258" s="86"/>
+      <c r="N258" s="86"/>
+      <c r="O258" s="86"/>
+      <c r="P258" s="86"/>
+      <c r="Q258" s="86"/>
+      <c r="R258" s="86"/>
+      <c r="S258" s="86"/>
+      <c r="T258" s="86"/>
+      <c r="U258" s="86"/>
+      <c r="V258" s="86"/>
+    </row>
+    <row r="259" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A259" s="13"/>
+      <c r="B259" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="30"/>
+      <c r="E259" s="85"/>
+      <c r="F259" s="85"/>
+      <c r="G259" s="85"/>
+      <c r="H259" s="86"/>
+      <c r="I259" s="86"/>
+      <c r="J259" s="86"/>
+      <c r="K259" s="86"/>
+      <c r="L259" s="86"/>
+      <c r="M259" s="86"/>
+      <c r="N259" s="86"/>
+      <c r="O259" s="86"/>
+      <c r="P259" s="86"/>
+      <c r="Q259" s="86"/>
+      <c r="R259" s="86"/>
+      <c r="S259" s="86"/>
+      <c r="T259" s="86"/>
+      <c r="U259" s="86"/>
+      <c r="V259" s="86"/>
+    </row>
+    <row r="260" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A260" s="13"/>
+      <c r="B260" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260" s="30"/>
+      <c r="E260" s="85"/>
+      <c r="F260" s="85"/>
+      <c r="G260" s="85"/>
+      <c r="H260" s="86"/>
+      <c r="I260" s="86"/>
+      <c r="J260" s="86"/>
+      <c r="K260" s="86"/>
+      <c r="L260" s="86"/>
+      <c r="M260" s="86"/>
+      <c r="N260" s="86"/>
+      <c r="O260" s="86"/>
+      <c r="P260" s="86"/>
+      <c r="Q260" s="86"/>
+      <c r="R260" s="86"/>
+      <c r="S260" s="86"/>
+      <c r="T260" s="86"/>
+      <c r="U260" s="86"/>
+      <c r="V260" s="86"/>
+    </row>
+    <row r="261" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A261" s="10"/>
+      <c r="B261" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D261" s="31"/>
+      <c r="E261" s="87"/>
+      <c r="F261" s="87"/>
+      <c r="G261" s="87"/>
+      <c r="H261" s="87"/>
+      <c r="I261" s="87"/>
+      <c r="J261" s="87"/>
+      <c r="K261" s="87"/>
+      <c r="L261" s="87"/>
+      <c r="M261" s="87"/>
+      <c r="N261" s="87"/>
+      <c r="O261" s="87"/>
+      <c r="P261" s="87"/>
+      <c r="Q261" s="87"/>
+      <c r="R261" s="87"/>
+      <c r="S261" s="87"/>
+      <c r="T261" s="87"/>
+      <c r="U261" s="87"/>
+      <c r="V261" s="87"/>
+    </row>
+    <row r="262" spans="1:22" ht="3" customHeight="1" thickBot="1">
+      <c r="A262" s="11"/>
+      <c r="B262" s="11"/>
+      <c r="C262" s="18"/>
+      <c r="D262" s="32"/>
+      <c r="E262" s="92"/>
+      <c r="F262" s="92"/>
+      <c r="G262" s="92"/>
+      <c r="H262" s="92"/>
+      <c r="I262" s="92"/>
+      <c r="J262" s="92"/>
+      <c r="K262" s="92"/>
+      <c r="L262" s="92"/>
+      <c r="M262" s="92"/>
+      <c r="N262" s="92"/>
+      <c r="O262" s="92"/>
+      <c r="P262" s="92"/>
+      <c r="Q262" s="92"/>
+      <c r="R262" s="92"/>
+      <c r="S262" s="92"/>
+      <c r="T262" s="92"/>
+      <c r="U262" s="92"/>
+      <c r="V262" s="92"/>
+    </row>
+    <row r="263" spans="1:22" ht="3" customHeight="1">
+      <c r="A263" s="13"/>
+      <c r="B263" s="13"/>
+      <c r="C263" s="16"/>
+      <c r="D263" s="95"/>
+      <c r="E263" s="85"/>
+      <c r="F263" s="85"/>
+      <c r="G263" s="85"/>
+      <c r="H263" s="85"/>
+      <c r="I263" s="85"/>
+      <c r="J263" s="85"/>
+      <c r="K263" s="85"/>
+      <c r="L263" s="85"/>
+      <c r="M263" s="85"/>
+      <c r="N263" s="85"/>
+      <c r="O263" s="85"/>
+      <c r="P263" s="85"/>
+      <c r="Q263" s="85"/>
+      <c r="R263" s="85"/>
+      <c r="S263" s="85"/>
+      <c r="T263" s="85"/>
+      <c r="U263" s="85"/>
+      <c r="V263" s="85"/>
+    </row>
+    <row r="264" spans="1:22" ht="14">
+      <c r="E264" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="N252" s="40" t="s">
+      <c r="N264" s="40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="14">
-      <c r="E253" s="41" t="s">
+    <row r="265" spans="1:22" ht="14">
+      <c r="E265" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="N253" s="41" t="s">
+      <c r="N265" s="41" t="s">
         <v>80</v>
       </c>
     </row>
@@ -17789,15 +18285,15 @@
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
     </row>
-    <row r="7" spans="1:9" ht="322">
+    <row r="7" spans="1:9" ht="358.5" customHeight="1">
       <c r="A7" s="56">
         <v>5</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>94</v>
